--- a/data/unchecked/manual_collect/china/beijing/beijingCaseStatistics_20200618.xlsx
+++ b/data/unchecked/manual_collect/china/beijing/beijingCaseStatistics_20200618.xlsx
@@ -10378,7 +10378,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -10463,19 +10463,6 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -10510,7 +10497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10570,10 +10557,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10850,8 +10833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3:AF41"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -11072,7 +11055,7 @@
         <v>2</v>
       </c>
       <c r="N2" s="20"/>
-      <c r="P2" s="27">
+      <c r="P2" s="18">
         <v>777</v>
       </c>
       <c r="Q2" s="18">
@@ -11082,10 +11065,10 @@
         <v>584</v>
       </c>
       <c r="S2" s="20">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T2" s="20">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="V2" s="20"/>
       <c r="W2" s="18"/>
@@ -11145,7 +11128,7 @@
       <c r="M3" s="18"/>
       <c r="N3" s="20"/>
       <c r="O3" s="22"/>
-      <c r="P3" s="26">
+      <c r="P3" s="20">
         <v>19</v>
       </c>
       <c r="Q3" s="20"/>
@@ -11210,8 +11193,8 @@
       <c r="L4" s="20"/>
       <c r="M4" s="18"/>
       <c r="N4" s="20"/>
-      <c r="P4" s="26">
-        <v>55</v>
+      <c r="P4" s="20">
+        <v>57</v>
       </c>
       <c r="Q4" s="20"/>
       <c r="R4" s="20"/>
@@ -11273,7 +11256,7 @@
       <c r="L5" s="20"/>
       <c r="M5" s="18"/>
       <c r="N5" s="20"/>
-      <c r="P5" s="26">
+      <c r="P5" s="20">
         <v>76</v>
       </c>
       <c r="Q5" s="20"/>
@@ -11338,8 +11321,8 @@
       <c r="L6" s="20"/>
       <c r="M6" s="18"/>
       <c r="N6" s="20"/>
-      <c r="P6" s="26">
-        <v>139</v>
+      <c r="P6" s="20">
+        <v>174</v>
       </c>
       <c r="Q6" s="20"/>
       <c r="R6" s="20"/>
@@ -11401,7 +11384,7 @@
       <c r="L7" s="20"/>
       <c r="M7" s="18"/>
       <c r="N7" s="20"/>
-      <c r="P7" s="26">
+      <c r="P7" s="20">
         <v>15</v>
       </c>
       <c r="Q7" s="20"/>
@@ -11466,7 +11449,7 @@
       <c r="L8" s="20"/>
       <c r="M8" s="18"/>
       <c r="N8" s="20"/>
-      <c r="P8" s="26">
+      <c r="P8" s="20">
         <v>71</v>
       </c>
       <c r="Q8" s="20"/>
@@ -11529,7 +11512,7 @@
       <c r="L9" s="20"/>
       <c r="M9" s="18"/>
       <c r="N9" s="20"/>
-      <c r="P9" s="26">
+      <c r="P9" s="20">
         <v>5</v>
       </c>
       <c r="Q9" s="20"/>
@@ -11592,8 +11575,8 @@
       <c r="L10" s="20"/>
       <c r="M10" s="18"/>
       <c r="N10" s="20"/>
-      <c r="P10" s="26">
-        <v>18</v>
+      <c r="P10" s="20">
+        <v>20</v>
       </c>
       <c r="Q10" s="20"/>
       <c r="R10" s="20"/>
@@ -11655,7 +11638,7 @@
       <c r="L11" s="20"/>
       <c r="M11" s="18"/>
       <c r="N11" s="20"/>
-      <c r="P11" s="26">
+      <c r="P11" s="20">
         <v>19</v>
       </c>
       <c r="Q11" s="20"/>
@@ -11718,7 +11701,7 @@
       <c r="L12" s="20"/>
       <c r="M12" s="18"/>
       <c r="N12" s="20"/>
-      <c r="P12" s="26">
+      <c r="P12" s="20">
         <v>10</v>
       </c>
       <c r="Q12" s="20"/>
@@ -11781,7 +11764,7 @@
       <c r="L13" s="20"/>
       <c r="M13" s="18"/>
       <c r="N13" s="20"/>
-      <c r="P13" s="26">
+      <c r="P13" s="20">
         <v>29</v>
       </c>
       <c r="Q13" s="20"/>
@@ -11846,8 +11829,8 @@
       <c r="L14" s="20"/>
       <c r="M14" s="18"/>
       <c r="N14" s="20"/>
-      <c r="P14" s="26">
-        <v>63</v>
+      <c r="P14" s="20">
+        <v>67</v>
       </c>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
@@ -11909,7 +11892,7 @@
       <c r="L15" s="20"/>
       <c r="M15" s="18"/>
       <c r="N15" s="20"/>
-      <c r="P15" s="26">
+      <c r="P15" s="20">
         <v>7</v>
       </c>
       <c r="Q15" s="20"/>
@@ -11972,7 +11955,7 @@
       <c r="L16" s="20"/>
       <c r="M16" s="18"/>
       <c r="N16" s="20"/>
-      <c r="P16" s="26"/>
+      <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
       <c r="S16" s="20"/>
@@ -12033,7 +12016,7 @@
       <c r="L17" s="20"/>
       <c r="M17" s="18"/>
       <c r="N17" s="20"/>
-      <c r="P17" s="26">
+      <c r="P17" s="20">
         <v>7</v>
       </c>
       <c r="Q17" s="20"/>
@@ -12096,7 +12079,7 @@
       <c r="L18" s="20"/>
       <c r="M18" s="18"/>
       <c r="N18" s="20"/>
-      <c r="P18" s="26">
+      <c r="P18" s="20">
         <v>1</v>
       </c>
       <c r="Q18" s="20"/>
@@ -12159,7 +12142,7 @@
       <c r="L19" s="20"/>
       <c r="M19" s="18"/>
       <c r="N19" s="20"/>
-      <c r="P19" s="26">
+      <c r="P19" s="20">
         <v>25</v>
       </c>
       <c r="Q19" s="20"/>
@@ -12224,7 +12207,7 @@
       <c r="L20" s="20"/>
       <c r="M20" s="18"/>
       <c r="N20" s="20"/>
-      <c r="P20" s="26">
+      <c r="P20" s="20">
         <v>57</v>
       </c>
       <c r="Q20" s="18"/>
@@ -12289,7 +12272,7 @@
       <c r="L21" s="20"/>
       <c r="M21" s="18"/>
       <c r="N21" s="20"/>
-      <c r="P21" s="26">
+      <c r="P21" s="20">
         <v>47</v>
       </c>
       <c r="Q21" s="18"/>
@@ -12354,7 +12337,7 @@
       <c r="L22" s="20"/>
       <c r="M22" s="18"/>
       <c r="N22" s="20"/>
-      <c r="P22" s="26">
+      <c r="P22" s="20">
         <v>18</v>
       </c>
       <c r="Q22" s="18"/>
@@ -12419,7 +12402,7 @@
       <c r="L23" s="20"/>
       <c r="M23" s="18"/>
       <c r="N23" s="20"/>
-      <c r="P23" s="26">
+      <c r="P23" s="20">
         <v>19</v>
       </c>
       <c r="Q23" s="18"/>
@@ -12484,7 +12467,7 @@
       <c r="L24" s="20"/>
       <c r="M24" s="18"/>
       <c r="N24" s="20"/>
-      <c r="P24" s="26">
+      <c r="P24" s="20">
         <v>1</v>
       </c>
       <c r="Q24" s="18"/>
@@ -12549,7 +12532,7 @@
       <c r="L25" s="20"/>
       <c r="M25" s="18"/>
       <c r="N25" s="20"/>
-      <c r="P25" s="26">
+      <c r="P25" s="20">
         <v>3</v>
       </c>
       <c r="Q25" s="18"/>
@@ -12614,7 +12597,7 @@
       <c r="L26" s="20"/>
       <c r="M26" s="18"/>
       <c r="N26" s="20"/>
-      <c r="P26" s="26">
+      <c r="P26" s="20">
         <v>1</v>
       </c>
       <c r="Q26" s="18"/>
@@ -12679,7 +12662,7 @@
       <c r="L27" s="20"/>
       <c r="M27" s="18"/>
       <c r="N27" s="20"/>
-      <c r="P27" s="26">
+      <c r="P27" s="20">
         <v>1</v>
       </c>
       <c r="Q27" s="18"/>
@@ -12744,7 +12727,7 @@
       <c r="L28" s="20"/>
       <c r="M28" s="18"/>
       <c r="N28" s="20"/>
-      <c r="P28" s="26">
+      <c r="P28" s="20">
         <v>4</v>
       </c>
       <c r="Q28" s="18"/>
@@ -12809,7 +12792,7 @@
       <c r="L29" s="20"/>
       <c r="M29" s="18"/>
       <c r="N29" s="20"/>
-      <c r="P29" s="26">
+      <c r="P29" s="20">
         <v>3</v>
       </c>
       <c r="Q29" s="18"/>
@@ -12874,7 +12857,7 @@
       <c r="L30" s="20"/>
       <c r="M30" s="18"/>
       <c r="N30" s="20"/>
-      <c r="P30" s="26">
+      <c r="P30" s="20">
         <v>7</v>
       </c>
       <c r="Q30" s="18"/>
@@ -12939,7 +12922,7 @@
       <c r="L31" s="20"/>
       <c r="M31" s="18"/>
       <c r="N31" s="20"/>
-      <c r="P31" s="26">
+      <c r="P31" s="20">
         <v>1</v>
       </c>
       <c r="Q31" s="18"/>
@@ -13004,7 +12987,7 @@
       <c r="L32" s="20"/>
       <c r="M32" s="18"/>
       <c r="N32" s="20"/>
-      <c r="P32" s="26">
+      <c r="P32" s="20">
         <v>1</v>
       </c>
       <c r="Q32" s="18"/>
@@ -13069,7 +13052,7 @@
       <c r="L33" s="20"/>
       <c r="M33" s="18"/>
       <c r="N33" s="20"/>
-      <c r="P33" s="26">
+      <c r="P33" s="20">
         <v>1</v>
       </c>
       <c r="Q33" s="18"/>
@@ -13134,7 +13117,7 @@
       <c r="L34" s="20"/>
       <c r="M34" s="18"/>
       <c r="N34" s="20"/>
-      <c r="P34" s="26">
+      <c r="P34" s="20">
         <v>1</v>
       </c>
       <c r="Q34" s="18"/>
@@ -13199,7 +13182,7 @@
       <c r="L35" s="20"/>
       <c r="M35" s="18"/>
       <c r="N35" s="20"/>
-      <c r="P35" s="26">
+      <c r="P35" s="20">
         <v>1</v>
       </c>
       <c r="Q35" s="18"/>
@@ -13264,7 +13247,7 @@
       <c r="L36" s="20"/>
       <c r="M36" s="18"/>
       <c r="N36" s="20"/>
-      <c r="P36" s="26">
+      <c r="P36" s="20">
         <v>1</v>
       </c>
       <c r="Q36" s="18"/>
@@ -13329,7 +13312,7 @@
       <c r="L37" s="20"/>
       <c r="M37" s="18"/>
       <c r="N37" s="20"/>
-      <c r="P37" s="26">
+      <c r="P37" s="20">
         <v>1</v>
       </c>
       <c r="Q37" s="18"/>
@@ -13394,7 +13377,7 @@
       <c r="L38" s="20"/>
       <c r="M38" s="18"/>
       <c r="N38" s="20"/>
-      <c r="P38" s="26">
+      <c r="P38" s="20">
         <v>4</v>
       </c>
       <c r="Q38" s="18"/>
@@ -13459,7 +13442,7 @@
       <c r="L39" s="20"/>
       <c r="M39" s="18"/>
       <c r="N39" s="20"/>
-      <c r="P39" s="26">
+      <c r="P39" s="20">
         <v>2</v>
       </c>
       <c r="Q39" s="18"/>
@@ -13522,7 +13505,7 @@
       <c r="L40" s="20"/>
       <c r="M40" s="18"/>
       <c r="N40" s="20"/>
-      <c r="P40" s="26">
+      <c r="P40" s="20">
         <v>174</v>
       </c>
       <c r="Q40" s="18"/>
@@ -13589,8 +13572,8 @@
         <v>2</v>
       </c>
       <c r="N41" s="20"/>
-      <c r="P41" s="26">
-        <v>44</v>
+      <c r="P41" s="20">
+        <v>1</v>
       </c>
       <c r="Q41" s="18">
         <v>65</v>
@@ -13599,10 +13582,10 @@
         <v>584</v>
       </c>
       <c r="S41" s="20">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T41" s="20">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="V41" s="20"/>
       <c r="W41" s="20"/>
